--- a/Чек лист по шинам.xlsx
+++ b/Чек лист по шинам.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -1077,23 +1077,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,15 +1091,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,7 +1123,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,6 +1153,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1174,9 +1183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,22 +1206,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1229,7 +1229,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1244,18 +1244,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1274,186 +1262,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1549,21 +1537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1583,21 +1556,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1736,11 +1694,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1760,15 +1744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1784,180 +1759,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1976,70 +1934,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2376,50 +2327,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="105.75" customHeight="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" ht="51.75" spans="1:5">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="31">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2430,124 +2381,124 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="34"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="34"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="16" ht="15.75"/>
     <row r="17" ht="120" customHeight="1" spans="1:5">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" ht="15.75" spans="1:5">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" ht="51.75" spans="1:5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" ht="102.75" spans="1:5">
-      <c r="A20" s="31">
+      <c r="A20" s="28">
         <v>1</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="22" ht="45" spans="2:5">
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="29" ht="15.75"/>
     <row r="30" ht="121" customHeight="1" spans="1:5">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" ht="15.75" spans="1:5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" ht="51.75" spans="1:5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" ht="64.5" spans="1:5">
-      <c r="A33" s="31">
+      <c r="A33" s="28">
         <v>1</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2555,62 +2506,62 @@
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" ht="15.75"/>
     <row r="41" ht="116" customHeight="1" spans="1:5">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" ht="15.75" spans="1:5">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" ht="51.75" spans="1:5">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" ht="64.5" spans="1:5">
-      <c r="A44" s="31">
+      <c r="A44" s="28">
         <v>1</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2618,59 +2569,59 @@
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51" ht="15.75"/>
     <row r="52" ht="101" customHeight="1" spans="1:5">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" ht="15.75" spans="1:5">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" ht="51.75" spans="1:5">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" ht="26.25" spans="1:5">
-      <c r="A55" s="31">
+      <c r="A55" s="28">
         <v>1</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="31"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="57" ht="30" spans="2:4">
       <c r="B57" t="s">
@@ -2679,7 +2630,7 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2728,25 +2679,25 @@
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="3:5">
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>466</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="3:5">
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2755,51 +2706,51 @@
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="3:5">
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>468</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="3:5">
-      <c r="C13" s="11"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="10"/>
+      <c r="E13" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" ht="31.5" spans="3:5">
-      <c r="C14" s="11"/>
-      <c r="E14" s="21" t="s">
+      <c r="C14" s="10"/>
+      <c r="E14" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="3:5">
-      <c r="C15" s="11"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" t="s">
         <v>44</v>
       </c>
@@ -2808,21 +2759,21 @@
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
       <c r="E20" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="E21" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="3:5">
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="26" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2831,15 +2782,15 @@
       <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>471</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -2847,53 +2798,53 @@
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="11"/>
+      <c r="C28" s="10"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" ht="15.75" spans="3:5">
-      <c r="C29" s="11"/>
+      <c r="C29" s="10"/>
       <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="3:5">
-      <c r="C30" s="11"/>
-      <c r="E30" s="27" t="s">
+      <c r="C30" s="10"/>
+      <c r="E30" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="3:5">
-      <c r="C31" s="11"/>
-      <c r="E31" s="27"/>
+      <c r="C31" s="10"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" ht="15.75" spans="3:5">
-      <c r="C32" s="11"/>
+      <c r="C32" s="10"/>
       <c r="D32" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" ht="31.5" spans="3:5">
-      <c r="C33" s="11"/>
-      <c r="E33" s="27" t="s">
+      <c r="C33" s="10"/>
+      <c r="E33" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="11"/>
+      <c r="C34" s="10"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" ht="16.5" spans="3:5">
-      <c r="C35" s="22"/>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="25" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2909,7 +2860,7 @@
   <dimension ref="B4:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2953,7 +2904,9 @@
       <c r="D7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="8" t="s">
@@ -2965,7 +2918,9 @@
       <c r="D8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="8" t="s">
@@ -2977,7 +2932,9 @@
       <c r="D9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="8" t="s">
@@ -2989,7 +2946,9 @@
       <c r="D10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="8" t="s">
@@ -3001,7 +2960,9 @@
       <c r="D11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="8" t="s">
@@ -3013,7 +2974,9 @@
       <c r="D12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="8" t="s">
@@ -3025,7 +2988,9 @@
       <c r="D13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="8" t="s">
@@ -3037,7 +3002,9 @@
       <c r="D14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="8" t="s">
@@ -3049,15 +3016,17 @@
       <c r="D15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="8" t="s">
@@ -3069,7 +3038,9 @@
       <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="8" t="s">
@@ -3081,7 +3052,9 @@
       <c r="D18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="8" t="s">
@@ -3093,7 +3066,9 @@
       <c r="D19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
@@ -3105,7 +3080,9 @@
       <c r="D20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="8" t="s">
@@ -3117,7 +3094,9 @@
       <c r="D21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="8" t="s">
@@ -3129,7 +3108,9 @@
       <c r="D22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8" t="s">
@@ -3141,7 +3122,9 @@
       <c r="D23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
@@ -3153,45 +3136,49 @@
       <c r="D24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="13" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" ht="15.75" spans="2:5">
+      <c r="B26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="15"/>
+      <c r="C26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="15" t="s">
         <v>88</v>
       </c>
     </row>
